--- a/DataFiles_Excel/Maps/TopAwardRecipients/Top50DiscretionaryUS/Top50_Recipients_Discretionary_US_HRSA.xlsx
+++ b/DataFiles_Excel/Maps/TopAwardRecipients/Top50DiscretionaryUS/Top50_Recipients_Discretionary_US_HRSA.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jim.ide\Desktop\annual-report-html2excel\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Engineering Projects\Annual Report\2016-html2excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -343,7 +343,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,8 +479,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -828,26 +843,29 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1205,6 +1223,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -1212,11 +1231,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
@@ -1224,8 +1243,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6"/>
@@ -1245,7 +1264,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1263,7 +1282,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1271,34 +1290,34 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1320,7 +1339,7 @@
         <v>182902531</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1360,7 +1379,7 @@
         <v>105549833</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1380,7 +1399,7 @@
         <v>101400927</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1440,7 +1459,7 @@
         <v>53633222</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1460,7 +1479,7 @@
         <v>52484893</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -1480,7 +1499,7 @@
         <v>52200784</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -1520,7 +1539,7 @@
         <v>46010665</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -1540,7 +1559,7 @@
         <v>43114428</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
@@ -1560,7 +1579,7 @@
         <v>40071147</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
@@ -1600,7 +1619,7 @@
         <v>34793371</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>44</v>
       </c>
@@ -1640,7 +1659,7 @@
         <v>32463272</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
@@ -1660,7 +1679,7 @@
         <v>27445980</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
@@ -1700,7 +1719,7 @@
         <v>26242369</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>54</v>
       </c>
@@ -1760,7 +1779,7 @@
         <v>25690092</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
@@ -1820,7 +1839,7 @@
         <v>23818162</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>65</v>
       </c>
@@ -1880,7 +1899,7 @@
         <v>21895878</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>70</v>
       </c>
@@ -1900,7 +1919,7 @@
         <v>21484361</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>72</v>
       </c>
@@ -1920,7 +1939,7 @@
         <v>20907296</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>74</v>
       </c>
@@ -1940,7 +1959,7 @@
         <v>20857520</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>75</v>
       </c>
@@ -1960,7 +1979,7 @@
         <v>19688906</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>77</v>
       </c>
@@ -1980,7 +1999,7 @@
         <v>19370764</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>79</v>
       </c>
@@ -2040,7 +2059,7 @@
         <v>18080105</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>85</v>
       </c>
@@ -2100,7 +2119,7 @@
         <v>16739976</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>90</v>
       </c>
@@ -2120,7 +2139,7 @@
         <v>16738811</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>91</v>
       </c>
@@ -2200,7 +2219,7 @@
         <v>16428607</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>98</v>
       </c>
@@ -2240,7 +2259,7 @@
         <v>16222780</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>101</v>
       </c>
@@ -2260,7 +2279,7 @@
         <v>16085995</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>103</v>
       </c>
